--- a/homet5555ask .xlsx
+++ b/homet5555ask .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglef00l/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglef00l/Documents/GitHub/My_first_committteee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4594149E-0C9D-AC4E-A74E-3B4B5B2853CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE5568F-E8F9-8541-A800-6FCB05CFAE29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C381997-0818-AD4B-9235-D05AF72993E1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7C381997-0818-AD4B-9235-D05AF72993E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>№1</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>№4</t>
+  </si>
+  <si>
+    <t>прошел</t>
+  </si>
+  <si>
+    <t>не прошел</t>
   </si>
 </sst>
 </file>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6963EBB6-C255-8546-B99F-EDDA8C21F4AF}">
   <dimension ref="B3:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,7 +964,9 @@
       <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="21" t="s">
         <v>21</v>
@@ -967,7 +975,9 @@
       <c r="L7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="21" t="s">
         <v>37</v>
@@ -976,7 +986,9 @@
       <c r="S7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="21" t="s">
         <v>51</v>
@@ -1005,7 +1017,9 @@
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="21" t="s">
         <v>23</v>
@@ -1014,7 +1028,9 @@
       <c r="L8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="21" t="s">
         <v>39</v>
@@ -1023,7 +1039,9 @@
       <c r="S8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="12" t="s">
         <v>53</v>
@@ -1052,7 +1070,9 @@
       <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="13" t="s">
         <v>25</v>
@@ -1061,7 +1081,9 @@
       <c r="L9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="13" t="s">
         <v>41</v>
@@ -1070,7 +1092,9 @@
       <c r="S9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="14" t="s">
         <v>55</v>
@@ -1099,7 +1123,9 @@
       <c r="E10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="21" t="s">
         <v>27</v>
@@ -1108,7 +1134,9 @@
       <c r="L10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="30" t="s">
         <v>43</v>
@@ -1117,7 +1145,9 @@
       <c r="S10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="5"/>
+      <c r="T10" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="21" t="s">
         <v>57</v>
@@ -1149,7 +1179,9 @@
       <c r="L11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
         <v>45</v>
